--- a/biology/Mycologie/Thielaviopsis_basicola/Thielaviopsis_basicola.xlsx
+++ b/biology/Mycologie/Thielaviopsis_basicola/Thielaviopsis_basicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thielaviopsis basicola est une espèce de champignons pathogènes des plantes de la famille des Ceratocystidaceae. Ce champignon est présent en Europe  ainsi qu'aux États-Unis et en Australie.
-c'est un champignon du sol qui attaque de nombreuses espèces maraîchères, et notamment les cultures d'endives, provoquant une pourriture noire des racines[1].
+c'est un champignon du sol qui attaque de nombreuses espèces maraîchères, et notamment les cultures d'endives, provoquant une pourriture noire des racines.
 C'est l'un des champignons responsables de la fonte des semis.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Index Fungorum                                      (28 novembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (28 novembre 2014) :
 Torula basicola Berk. &amp; Broome, 1850 ;
 Trichocladium basicola (Berk. &amp; Broome) J.W. Carmich., 1980 ;
 Chalara elegans Nag Raj &amp; W.B. Kendr., 1975.</t>
